--- a/statique_sol.xlsx
+++ b/statique_sol.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>nom_fichier</t>
   </si>
@@ -48,31 +48,7 @@
     <t>                              </t>
   </si>
   <si>
-    <t>100_kroA_3.tsp</t>
-  </si>
-  <si>
-    <t>2.1273752538849534e6</t>
-  </si>
-  <si>
-    <t>[1, 4, 10, 17, 18, 19, 21, ...</t>
-  </si>
-  <si>
-    <t>100_kroA_6.tsp</t>
-  </si>
-  <si>
-    <t>721762.908750965</t>
-  </si>
-  <si>
-    <t>[3, 7, 9, 12, 14, 20, 27, 3...</t>
-  </si>
-  <si>
-    <t>100_kroA_9.tsp</t>
-  </si>
-  <si>
-    <t>507717.1595593813</t>
-  </si>
-  <si>
-    <t>[33, 36, 40, 84, 96][10, 11...</t>
+    <t>                                                                                                                                                                                                        </t>
   </si>
   <si>
     <t>10_ulysses_3.tsp</t>
@@ -81,7 +57,7 @@
     <t>54.354823587721164</t>
   </si>
   <si>
-    <t>[1, 5, 8][2, 3, 4][6, 7, 9,...</t>
+    <t>[1, 5, 8][2, 3, 4][6, 7, 9, 10]</t>
   </si>
 </sst>
 </file>
@@ -433,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,98 +440,38 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>120.197</v>
+        <v>4.54200005531311</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>72286.71491489626</v>
+        <v>54.354823587721164</v>
       </c>
       <c r="F3">
-        <v>0.9660207033136781</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>120.76699995994568</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>7123.403807419225</v>
-      </c>
-      <c r="F4">
-        <v>0.9901305487978779</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>120.58700013160706</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>802.3552118427449</v>
-      </c>
-      <c r="F5">
-        <v>0.9984196807282638</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>0.05500006675720215</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6">
-        <v>54.354823587721164</v>
-      </c>
-      <c r="F6">
         <v>0.0</v>
       </c>
     </row>

--- a/statique_sol.xlsx
+++ b/statique_sol.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>nom_fichier</t>
   </si>
@@ -58,6 +58,105 @@
   </si>
   <si>
     <t>[1, 5, 8][2, 3, 4][6, 7, 9, 10]</t>
+  </si>
+  <si>
+    <t>10_ulysses_6.tsp</t>
+  </si>
+  <si>
+    <t>7.22199614222636</t>
+  </si>
+  <si>
+    <t>[4][5][2, 3][6, 7][9, 10][1, 8]</t>
+  </si>
+  <si>
+    <t>10_ulysses_9.tsp</t>
+  </si>
+  <si>
+    <t>0.7202777242147631</t>
+  </si>
+  <si>
+    <t>[3][9][1, 8][4][2][6][7][10][5]</t>
+  </si>
+  <si>
+    <t>14_burma_3.tsp</t>
+  </si>
+  <si>
+    <t>66.21374551350527</t>
+  </si>
+  <si>
+    <t>[3, 4, 12, 14][5, 6, 7, 13][1, 2, 8, 9, 10, 11]</t>
+  </si>
+  <si>
+    <t>14_burma_6.tsp</t>
+  </si>
+  <si>
+    <t>17.962247641471908</t>
+  </si>
+  <si>
+    <t>[1, 2, 8][9, 10, 11][5][3, 4][7, 13][6, 12, 14]</t>
+  </si>
+  <si>
+    <t>14_burma_9.tsp</t>
+  </si>
+  <si>
+    <t>4.724843955442653</t>
+  </si>
+  <si>
+    <t>[1, 8][3, 14][2][7, 13][4][5][10][6, 12][9, 11]</t>
+  </si>
+  <si>
+    <t>22_ulysses_3.tsp</t>
+  </si>
+  <si>
+    <t>284.2098066855361</t>
+  </si>
+  <si>
+    <t>[7, 10, 12, 13, 14, 19, 20, 21][5, 6, 9, 11, 15][1, 2, 3, 4, 8, 16, 17, 18, 22]</t>
+  </si>
+  <si>
+    <t>22_ulysses_6.tsp</t>
+  </si>
+  <si>
+    <t>82.6309678494024</t>
+  </si>
+  <si>
+    <t>[7, 12, 13, 14][2, 3, 4, 17, 18][10, 19, 20, 21][5, 6, 15][9, 11][1, 8, 16, 22]</t>
+  </si>
+  <si>
+    <t>22_ulysses_9.tsp</t>
+  </si>
+  <si>
+    <t>26.217229233402662</t>
+  </si>
+  <si>
+    <t>[2, 3, 17][9][10, 19, 20, 21][1, 8, 16][6, 7][11][5, 15][12, 13, 14][4, 18, 22]</t>
+  </si>
+  <si>
+    <t>26_eil_3.tsp</t>
+  </si>
+  <si>
+    <t>1850.4196829498164</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 9, 11, 16, 20, 21, 22][4, 5, 10, 12, 13, 15, 17, 18, 19][6, 7, 8, 14, 23, 24, 25, 26]</t>
+  </si>
+  <si>
+    <t>26_eil_6.tsp</t>
+  </si>
+  <si>
+    <t>655.4617542851051</t>
+  </si>
+  <si>
+    <t>[9, 10, 11, 16, 21][13, 15, 17, 19][1, 2, 3, 20, 22][4, 5, 6, 12][14, 18, 24, 25][7, 8, 23, 26]</t>
+  </si>
+  <si>
+    <t>26_eil_9.tsp</t>
+  </si>
+  <si>
+    <t>336.7240444760563</t>
+  </si>
+  <si>
+    <t>[9, 10, 11][14, 24, 25][7, 8, 26][13, 18][4, 5, 12][15, 17, 19][1, 6, 23][3, 20, 22][2, 16, 21]</t>
   </si>
 </sst>
 </file>
@@ -409,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,7 +539,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -449,10 +548,10 @@
         <v>7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -460,7 +559,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>4.54200005531311</v>
+        <v>0.048</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -473,6 +572,226 @@
       </c>
       <c r="F3">
         <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>0.093</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>7.22199614222636</v>
+      </c>
+      <c r="F4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>0.087</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>0.7202777242147631</v>
+      </c>
+      <c r="F5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>0.107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>66.21374551350527</v>
+      </c>
+      <c r="F6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>0.2999999523162842</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>17.962247641471908</v>
+      </c>
+      <c r="F7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>0.26600003242492676</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>4.724843955442653</v>
+      </c>
+      <c r="F8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>0.3810000419616699</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>284.2098066855361</v>
+      </c>
+      <c r="F9">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>5.514999866485596</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10">
+        <v>82.6309678494024</v>
+      </c>
+      <c r="F10">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>1.7630000114440918</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>26.217229233402662</v>
+      </c>
+      <c r="F11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>14.16100001335144</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>1850.4196829498167</v>
+      </c>
+      <c r="F12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>30.0479998588562</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>403.7320131487447</v>
+      </c>
+      <c r="F13">
+        <v>0.3840494727428864</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <v>30.069000005722046</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14">
+        <v>190.4452161635441</v>
+      </c>
+      <c r="F14">
+        <v>0.43441753183999404</v>
       </c>
     </row>
   </sheetData>
